--- a/medicine/Mort/Le_Défunt_par_erreur/Le_Défunt_par_erreur.xlsx
+++ b/medicine/Mort/Le_Défunt_par_erreur/Le_Défunt_par_erreur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9funt_par_erreur</t>
+          <t>Le_Défunt_par_erreur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Défunt par erreur (L'erroneo fu) est une courte nouvelle à chute de Dino Buzzati, incluse dans le recueil Le K publié en 1966.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_D%C3%A9funt_par_erreur</t>
+          <t>Le_Défunt_par_erreur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le célèbre peintre Lucio Predonzani découvre l'annonce de sa mort dans le journal de la semaine. Furieux, il se rend aux locaux de presse et demande réparation au rédacteur en chef. Le discours embarrassé de celui-ci, qui craint que cette erreur ne soit fatale au journal, le fait changer d'avis : une fois le peintre déclaré mort, la cote de ses tableaux augmente nécessairement et sa « mort » pourrait l'enrichir.
 Sur les conseils du rédacteur en chef et après accord de son épouse Mathilde, il décide de ne pas faire rectifier l'erreur et de laisser croire à sa propre mort. Il se laisse pousser la barbe pour ne pas être reconnu : il ressemble ainsi à son frère et peut être pris pour lui. 
